--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Lektionen\Scientific_Programming_FS2023\scientific_programming\Week_02\exercises\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086B99A-C126-4BAD-AD35-A681EEDFD999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -53,11 +47,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,42 +100,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="113"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="13"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="13"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -162,15 +135,13 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -185,7 +156,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$A$2:$A$6</c:f>
@@ -213,16 +183,16 @@
             <c:numRef>
               <c:f>Sheet2!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>258.08695652173913</c:v>
+                  <c:v>258.0869565217391</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>267.8095238095238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236.35714285714289</c:v>
+                  <c:v>236.3571428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>244.35</c:v>
@@ -233,21 +203,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C7A-4558-9BD8-14E1184B9CE8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -257,7 +213,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -268,29 +223,27 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-CH"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t/>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -302,15 +255,16 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-CH"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t/>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -319,11 +273,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -337,26 +289,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>236219</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>572680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="chickens.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="chickens.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -369,8 +315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515099" y="2842260"/>
-          <a:ext cx="4603661" cy="2842260"/>
+          <a:off x="7353300" y="3048000"/>
+          <a:ext cx="3505200" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -394,13 +340,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -419,20 +359,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D101" totalsRowShown="0">
-  <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D101" totalsRowShown="0">
+  <autoFilter ref="A1:D101"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="chicken_id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="weight"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="breed"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="eggs_per_year"/>
+    <tableColumn id="1" name="chicken_id"/>
+    <tableColumn id="2" name="weight"/>
+    <tableColumn id="3" name="breed"/>
+    <tableColumn id="4" name="eggs_per_year"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,27 +446,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,24 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,19 +655,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.6640625" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -777,12 +679,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2728.8549201007122</v>
+        <v>2367.055419894717</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -791,12 +693,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2323.7613645021288</v>
+        <v>2356.765773543911</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -805,12 +707,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2635.0620337231512</v>
+        <v>2799.556402945746</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -819,12 +721,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2603.9851518221658</v>
+        <v>2205.604240341931</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -833,12 +735,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3079.394486847023</v>
+        <v>2609.794594136004</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -847,12 +749,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2250.1635826830611</v>
+        <v>2887.175763209295</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -861,12 +763,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2648.3648470213761</v>
+        <v>2481.123184669855</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -875,12 +777,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2371.107826299145</v>
+        <v>2888.749210549966</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -889,12 +791,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2224.379423218274</v>
+        <v>2380.893066552413</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -903,12 +805,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2577.2501886301629</v>
+        <v>1907.476892256386</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -917,12 +819,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2378.7042633195611</v>
+        <v>2475.713021317716</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -931,12 +833,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2398.090868343786</v>
+        <v>2528.556627286936</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -945,12 +847,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2516.444882464411</v>
+        <v>2871.157324882921</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -959,12 +861,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2043.5838686807481</v>
+        <v>2755.074811371274</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -973,12 +875,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2614.4574702909722</v>
+        <v>2751.410400089349</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -987,12 +889,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2215.2409049747689</v>
+        <v>2581.112951362686</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -1001,12 +903,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2412.7611397204578</v>
+        <v>2093.081969208072</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1015,12 +917,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2428.2090113350359</v>
+        <v>1936.447959448635</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1029,12 +931,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2572.909542617635</v>
+        <v>3064.571045716806</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -1043,12 +945,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2795.8081342329042</v>
+        <v>2692.39344916357</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1057,12 +959,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2036.171597959974</v>
+        <v>2980.067499041425</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1071,12 +973,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2495.9660116403738</v>
+        <v>2387.467353451106</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -1085,12 +987,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2214.676026807756</v>
+        <v>2208.704666016737</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1099,12 +1001,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2327.2139654663401</v>
+        <v>2166.84780478731</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1113,12 +1015,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2803.283291232945</v>
+        <v>2353.220367354619</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1127,12 +1029,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2511.9151308738719</v>
+        <v>2817.424096476614</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1141,12 +1043,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3195.5135704106119</v>
+        <v>2364.193882516953</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1155,12 +1057,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2611.7249973529579</v>
+        <v>2302.567408191595</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1169,12 +1071,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2507.9614954095891</v>
+        <v>2367.396708154825</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1183,12 +1085,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2410.779328188964</v>
+        <v>2393.59762008527</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1197,12 +1099,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2610.7422760920172</v>
+        <v>2942.07259510006</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1211,12 +1113,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2946.3372937727959</v>
+        <v>2181.422900618355</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1225,12 +1127,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2414.1887986476422</v>
+        <v>2483.632624614553</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1239,12 +1141,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2793.692563687287</v>
+        <v>2160.933020659449</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1253,12 +1155,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2781.0915249569521</v>
+        <v>2437.779643490137</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1267,12 +1169,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2632.471847254461</v>
+        <v>2314.679056331523</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1281,12 +1183,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2786.703770176382</v>
+        <v>2416.447915449419</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1295,12 +1197,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2702.6049469977352</v>
+        <v>2520.649721713276</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1309,12 +1211,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2246.1184959256439</v>
+        <v>2666.861278144222</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1323,12 +1225,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2421.2948488831039</v>
+        <v>2680.66393285462</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1337,12 +1239,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2913.552661145884</v>
+        <v>3166.638592252134</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1351,12 +1253,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2325.1407507141962</v>
+        <v>3068.938751358166</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1365,12 +1267,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2136.9513693713611</v>
+        <v>2023.305805349866</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1379,12 +1281,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2081.2989603701699</v>
+        <v>2503.012342223841</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1393,12 +1295,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2932.753140388395</v>
+        <v>2992.284259776254</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1407,12 +1309,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2902.9897622204098</v>
+        <v>2274.45201787108</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1421,12 +1323,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2341.1689308512291</v>
+        <v>2685.477373091528</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1435,12 +1337,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2676.9670772968998</v>
+        <v>2355.936721734644</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1449,12 +1351,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2482.1684504812738</v>
+        <v>3092.429702791695</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1463,12 +1365,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3023.363313419924</v>
+        <v>2341.223716781413</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1477,12 +1379,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2439.0762543981618</v>
+        <v>2530.930202187321</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1491,12 +1393,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2576.3878660856849</v>
+        <v>2178.66841814795</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1505,12 +1407,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2538.806682625534</v>
+        <v>2539.2251484834</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1519,12 +1421,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2493.167543046914</v>
+        <v>2294.54355841239</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1533,12 +1435,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2571.9826436025819</v>
+        <v>2402.831643611466</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1547,12 +1449,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2369.111478411809</v>
+        <v>2875.30869104521</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1561,12 +1463,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2952.5535722533241</v>
+        <v>2259.432287385363</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1575,12 +1477,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2497.6421644260322</v>
+        <v>2618.391753802348</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1589,12 +1491,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2488.9171901978571</v>
+        <v>2054.119931089668</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1603,12 +1505,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2405.6282280265841</v>
+        <v>2289.914328505209</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1617,12 +1519,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2375.2657929423322</v>
+        <v>2804.748329287073</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1631,12 +1533,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2475.810038704913</v>
+        <v>2239.894868242201</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1645,12 +1547,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2433.1044744343581</v>
+        <v>2473.86946277022</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1659,12 +1561,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2846.5216762537129</v>
+        <v>2731.657883206487</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1673,12 +1575,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2996.8926717751269</v>
+        <v>2589.475439223782</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1687,12 +1589,12 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2706.5807090333292</v>
+        <v>2507.13106483807</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1701,12 +1603,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2830.8909590775802</v>
+        <v>2647.302476531785</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1715,12 +1617,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2376.0658037498079</v>
+        <v>2310.219693503499</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1729,12 +1631,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2725.0398290899511</v>
+        <v>2438.513295444553</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1743,12 +1645,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2424.2568628235322</v>
+        <v>2675.999584433813</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1757,12 +1659,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2239.378991656698</v>
+        <v>2365.833580331717</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1771,12 +1673,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2362.5649417126569</v>
+        <v>2632.682455502028</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1785,12 +1687,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2729.093810495659</v>
+        <v>2436.70918996413</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1799,12 +1701,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2615.3368833958489</v>
+        <v>2423.862285254212</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1813,12 +1715,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2339.2631147712441</v>
+        <v>2302.605919503743</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1827,12 +1729,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2619.2895458895141</v>
+        <v>2341.142978215923</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1841,12 +1743,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2595.668559067296</v>
+        <v>2429.970658969019</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1855,12 +1757,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2668.3807764109242</v>
+        <v>2303.174671961838</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1869,12 +1771,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2213.781093792149</v>
+        <v>2542.622836167981</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1883,12 +1785,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2314.4212863945131</v>
+        <v>1989.4432980752</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1897,12 +1799,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2594.8206735979611</v>
+        <v>2266.351702247635</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1911,12 +1813,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2149.4203433163689</v>
+        <v>3177.938852783607</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1925,12 +1827,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2511.1592931611222</v>
+        <v>2758.017293668242</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1939,12 +1841,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2417.661687224926</v>
+        <v>2571.90261719104</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1953,12 +1855,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2283.0369642758928</v>
+        <v>2577.26577602945</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1967,12 +1869,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2482.066072554152</v>
+        <v>2862.416906407042</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1981,12 +1883,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2456.1954972231429</v>
+        <v>2298.844263443923</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1995,12 +1897,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2217.347350980102</v>
+        <v>2666.110283203808</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -2009,12 +1911,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2765.0160841742568</v>
+        <v>2687.801216395877</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -2023,12 +1925,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2366.2684355317601</v>
+        <v>2871.052516612411</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2037,12 +1939,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>3026.5494650921651</v>
+        <v>2279.375319802496</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -2051,12 +1953,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2395.912013318818</v>
+        <v>2712.914882124854</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -2065,12 +1967,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2232.7669666789161</v>
+        <v>2303.335153912514</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -2079,12 +1981,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2620.2408767960892</v>
+        <v>2288.453702427783</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2093,12 +1995,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2464.088437271665</v>
+        <v>2300.457970271427</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2107,12 +2009,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1959.8225415604629</v>
+        <v>2463.39935181095</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2121,12 +2023,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2185.659542559682</v>
+        <v>2984.510146047224</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2135,12 +2037,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>3054.7602199221378</v>
+        <v>2583.465926317983</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2149,12 +2051,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2272.5372501384199</v>
+        <v>2073.848479336767</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2163,12 +2065,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2086.8481045686249</v>
+        <v>2075.71603594627</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -2187,20 +2089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2208,43 +2104,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>258.08695652173913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>258.0869565217391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>267.8095238095238</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>236.35714285714289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>236.3571428571429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>244.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>260</v>
       </c>
     </row>

--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2367.055419894717</v>
+        <v>2565.710758592513</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2356.765773543911</v>
+        <v>2095.440749254457</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2799.556402945746</v>
+        <v>2569.368480605807</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2205.604240341931</v>
+        <v>2548.627922947552</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2609.794594136004</v>
+        <v>2682.085023661584</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2887.175763209295</v>
+        <v>2231.641290079992</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2481.123184669855</v>
+        <v>2835.02388312858</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2888.749210549966</v>
+        <v>2480.6768190777</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2380.893066552413</v>
+        <v>2288.734753764518</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1907.476892256386</v>
+        <v>2289.530956532938</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2475.713021317716</v>
+        <v>2450.042263699789</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2528.556627286936</v>
+        <v>2485.59669088218</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2871.157324882921</v>
+        <v>2762.049169590992</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2755.074811371274</v>
+        <v>2570.567577845426</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2751.410400089349</v>
+        <v>2746.321042321986</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2581.112951362686</v>
+        <v>2609.782820706125</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2093.081969208072</v>
+        <v>1997.138800759772</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1936.447959448635</v>
+        <v>2586.034590961686</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3064.571045716806</v>
+        <v>2675.51268149943</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2692.39344916357</v>
+        <v>2491.889327568332</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2980.067499041425</v>
+        <v>2823.718027723388</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2387.467353451106</v>
+        <v>2482.560997048249</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2208.704666016737</v>
+        <v>2567.764825641947</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2166.84780478731</v>
+        <v>2372.97484592847</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2353.220367354619</v>
+        <v>2627.886396593819</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2817.424096476614</v>
+        <v>2441.046553023792</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2364.193882516953</v>
+        <v>2686.286402656537</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2302.567408191595</v>
+        <v>2438.22824419166</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2367.396708154825</v>
+        <v>2158.805998344179</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2393.59762008527</v>
+        <v>2157.599110020282</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2942.07259510006</v>
+        <v>2611.535510374341</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2181.422900618355</v>
+        <v>2240.283968243672</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2483.632624614553</v>
+        <v>2785.578739987462</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2160.933020659449</v>
+        <v>2159.143277655656</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2437.779643490137</v>
+        <v>2469.146284924755</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2314.679056331523</v>
+        <v>2537.452726180957</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2416.447915449419</v>
+        <v>2385.796504547232</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2520.649721713276</v>
+        <v>2048.154922074923</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2666.861278144222</v>
+        <v>2492.978207328466</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2680.66393285462</v>
+        <v>2105.399854290692</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3166.638592252134</v>
+        <v>2128.329594221191</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3068.938751358166</v>
+        <v>2245.061163630472</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2023.305805349866</v>
+        <v>2345.975059780254</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2503.012342223841</v>
+        <v>2324.348982328737</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2992.284259776254</v>
+        <v>2421.953533484651</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2274.45201787108</v>
+        <v>2785.776700209561</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2685.477373091528</v>
+        <v>2845.705414916806</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2355.936721734644</v>
+        <v>2177.324880626916</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3092.429702791695</v>
+        <v>1960.39128116979</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2341.223716781413</v>
+        <v>2374.086207647988</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2530.930202187321</v>
+        <v>2456.61158703729</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2178.66841814795</v>
+        <v>2744.285976924756</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2539.2251484834</v>
+        <v>2710.698408200837</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2294.54355841239</v>
+        <v>2530.974035245948</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2402.831643611466</v>
+        <v>2171.383256337936</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2875.30869104521</v>
+        <v>2651.739445851571</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2259.432287385363</v>
+        <v>2558.885195460781</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2618.391753802348</v>
+        <v>2790.309855404034</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2054.119931089668</v>
+        <v>2605.698121364327</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2289.914328505209</v>
+        <v>2385.307857282815</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2804.748329287073</v>
+        <v>2243.317387195093</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2239.894868242201</v>
+        <v>2739.510182917347</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2473.86946277022</v>
+        <v>2218.039914042828</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2731.657883206487</v>
+        <v>2800.091635878423</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2589.475439223782</v>
+        <v>2427.111260883266</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2507.13106483807</v>
+        <v>2424.845628822388</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2647.302476531785</v>
+        <v>2663.596300157223</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2310.219693503499</v>
+        <v>2730.835079959718</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2438.513295444553</v>
+        <v>2462.669354044298</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2675.999584433813</v>
+        <v>2687.53598502965</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2365.833580331717</v>
+        <v>2780.53501886064</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2632.682455502028</v>
+        <v>2258.915050578064</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2436.70918996413</v>
+        <v>2256.698557585887</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2423.862285254212</v>
+        <v>2826.160539339075</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2302.605919503743</v>
+        <v>2159.724070227494</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2341.142978215923</v>
+        <v>2353.942731205604</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2429.970658969019</v>
+        <v>2777.881249682825</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2303.174671961838</v>
+        <v>2010.841282790487</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2542.622836167981</v>
+        <v>2551.850988004185</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1989.4432980752</v>
+        <v>2544.22753783087</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2266.351702247635</v>
+        <v>2539.77968191473</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>3177.938852783607</v>
+        <v>2584.750611244152</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2758.017293668242</v>
+        <v>2738.866097617245</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2571.90261719104</v>
+        <v>2415.815454855659</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2577.26577602945</v>
+        <v>3021.700550634678</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2862.416906407042</v>
+        <v>2553.753471059868</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2298.844263443923</v>
+        <v>2451.558545143295</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2666.110283203808</v>
+        <v>2702.845385749045</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2687.801216395877</v>
+        <v>2546.389117288354</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2871.052516612411</v>
+        <v>2884.688582749651</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2279.375319802496</v>
+        <v>2463.354173767135</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2712.914882124854</v>
+        <v>2353.577596925395</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2303.335153912514</v>
+        <v>2471.578114581216</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2288.453702427783</v>
+        <v>2613.695992312835</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2300.457970271427</v>
+        <v>2370.861020705145</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2463.39935181095</v>
+        <v>2367.711294569465</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2984.510146047224</v>
+        <v>2182.9295929083</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2583.465926317983</v>
+        <v>1882.029047095764</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2073.848479336767</v>
+        <v>2997.244751880922</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2075.71603594627</v>
+        <v>2198.838983134595</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>

--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2565.710758592513</v>
+        <v>2435.836917152873</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2095.440749254457</v>
+        <v>2157.180544609028</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2569.368480605807</v>
+        <v>2558.418034509755</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2548.627922947552</v>
+        <v>2679.200608096602</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2682.085023661584</v>
+        <v>2556.855145138803</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2231.641290079992</v>
+        <v>2749.335405965483</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2835.02388312858</v>
+        <v>2246.565466332238</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2480.6768190777</v>
+        <v>2959.190869729992</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2288.734753764518</v>
+        <v>2728.468814160995</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2289.530956532938</v>
+        <v>2449.062959399676</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2450.042263699789</v>
+        <v>2196.644757527044</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2485.59669088218</v>
+        <v>2504.121595305146</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2762.049169590992</v>
+        <v>2400.690361816204</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2570.567577845426</v>
+        <v>2635.299215849555</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2746.321042321986</v>
+        <v>2512.049450608349</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2609.782820706125</v>
+        <v>2548.551683322371</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1997.138800759772</v>
+        <v>2613.606983816444</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2586.034590961686</v>
+        <v>2603.844751609005</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2675.51268149943</v>
+        <v>2258.823117658525</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2491.889327568332</v>
+        <v>2586.092457619088</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2823.718027723388</v>
+        <v>2415.373741013068</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2482.560997048249</v>
+        <v>2315.352861083068</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2567.764825641947</v>
+        <v>2411.213526488157</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2372.97484592847</v>
+        <v>2707.369995982585</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2627.886396593819</v>
+        <v>2828.033114144734</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2441.046553023792</v>
+        <v>2805.739135758056</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2686.286402656537</v>
+        <v>2334.902532579886</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2438.22824419166</v>
+        <v>2700.569795953575</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2158.805998344179</v>
+        <v>2216.46657649511</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2157.599110020282</v>
+        <v>2674.342153167182</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2611.535510374341</v>
+        <v>2352.121480965922</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2240.283968243672</v>
+        <v>2720.625199061993</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2785.578739987462</v>
+        <v>2927.473812362682</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2159.143277655656</v>
+        <v>2219.88552286225</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2469.146284924755</v>
+        <v>2479.038035806728</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2537.452726180957</v>
+        <v>2095.447620693532</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2385.796504547232</v>
+        <v>2316.371335305255</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2048.154922074923</v>
+        <v>2277.808500381769</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2492.978207328466</v>
+        <v>2708.372823419244</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2105.399854290692</v>
+        <v>2419.522113597982</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2128.329594221191</v>
+        <v>2559.902451574447</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2245.061163630472</v>
+        <v>2373.096997799733</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2345.975059780254</v>
+        <v>2813.339515670859</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2324.348982328737</v>
+        <v>2336.714468537502</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2421.953533484651</v>
+        <v>2499.189550963161</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2785.776700209561</v>
+        <v>3165.956792558491</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2845.705414916806</v>
+        <v>2375.659024484306</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2177.324880626916</v>
+        <v>2683.999631821952</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1960.39128116979</v>
+        <v>2270.759002694604</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2374.086207647988</v>
+        <v>2386.460316291711</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2456.61158703729</v>
+        <v>2411.413683034364</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2744.285976924756</v>
+        <v>1980.188220613222</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2710.698408200837</v>
+        <v>2061.673231776081</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2530.974035245948</v>
+        <v>2288.575436367175</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2171.383256337936</v>
+        <v>2400.344192119332</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2651.739445851571</v>
+        <v>2063.962021565017</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2558.885195460781</v>
+        <v>2351.912752193953</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2790.309855404034</v>
+        <v>2587.234531987627</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2605.698121364327</v>
+        <v>2597.946718573713</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2385.307857282815</v>
+        <v>2720.208329528295</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2243.317387195093</v>
+        <v>2264.112288476385</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2739.510182917347</v>
+        <v>2443.494437938852</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2218.039914042828</v>
+        <v>2549.443680121648</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2800.091635878423</v>
+        <v>2933.223660043263</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2427.111260883266</v>
+        <v>2544.096037928604</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2424.845628822388</v>
+        <v>2747.052614473884</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2663.596300157223</v>
+        <v>2756.049072383002</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2730.835079959718</v>
+        <v>1995.268720992748</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2462.669354044298</v>
+        <v>2721.741529605744</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2687.53598502965</v>
+        <v>3101.184169675052</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2780.53501886064</v>
+        <v>2237.994464245381</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2258.915050578064</v>
+        <v>2585.124156858858</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2256.698557585887</v>
+        <v>2401.339725534916</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2826.160539339075</v>
+        <v>2145.456781038363</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2159.724070227494</v>
+        <v>2512.675996338865</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2353.942731205604</v>
+        <v>2483.165499312508</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2777.881249682825</v>
+        <v>2480.321535060965</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2010.841282790487</v>
+        <v>2803.635402370798</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2551.850988004185</v>
+        <v>2479.062020985308</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2544.22753783087</v>
+        <v>2698.708061434907</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2539.77968191473</v>
+        <v>2253.844101819943</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2584.750611244152</v>
+        <v>2721.631003150052</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2738.866097617245</v>
+        <v>2674.675917214097</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2415.815454855659</v>
+        <v>2804.627274782364</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>3021.700550634678</v>
+        <v>2062.533735395846</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2553.753471059868</v>
+        <v>2814.867887720169</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2451.558545143295</v>
+        <v>2414.638037314444</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2702.845385749045</v>
+        <v>2283.506643128605</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2546.389117288354</v>
+        <v>2507.744559787777</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2884.688582749651</v>
+        <v>2235.94787703692</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2463.354173767135</v>
+        <v>2604.1220773692</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2353.577596925395</v>
+        <v>2483.91068518715</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2471.578114581216</v>
+        <v>2879.363471137186</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2613.695992312835</v>
+        <v>2509.057321974064</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2370.861020705145</v>
+        <v>2290.971897351606</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2367.711294569465</v>
+        <v>2657.234721949924</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2182.9295929083</v>
+        <v>2353.422440800807</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1882.029047095764</v>
+        <v>2681.538659293906</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2997.244751880922</v>
+        <v>2563.850789057699</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2198.838983134595</v>
+        <v>2342.702012511284</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
